--- a/medicine/Médecine vétérinaire/Trypanosoma_equiperdum/Trypanosoma_equiperdum.xlsx
+++ b/medicine/Médecine vétérinaire/Trypanosoma_equiperdum/Trypanosoma_equiperdum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Τrypanosoma equiperdum est une espèce de parasites kinétoplastidés qui cause la dourine chez les chevaux et d'autres animaux de la famille des équidés. T. equiperdum est le seul trypanosome qui n'est pas disséminé par un insecte vecteur[1]. Il y a eu une importante controverse sur la question de savoir si T. equiperdum doit être considéré comme une espèce unique ou comme une souche de T. evansi ou de T. brucei[1],[2]. T. equiperdum est unique en ce que son kinétoplaste, le réseau d'anneaux connectés qui composent son ADN mitochondrial, se compose de milliers de « minicercles » dont la séquence est identique[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Τrypanosoma equiperdum est une espèce de parasites kinétoplastidés qui cause la dourine chez les chevaux et d'autres animaux de la famille des équidés. T. equiperdum est le seul trypanosome qui n'est pas disséminé par un insecte vecteur. Il y a eu une importante controverse sur la question de savoir si T. equiperdum doit être considéré comme une espèce unique ou comme une souche de T. evansi ou de T. brucei,. T. equiperdum est unique en ce que son kinétoplaste, le réseau d'anneaux connectés qui composent son ADN mitochondrial, se compose de milliers de « minicercles » dont la séquence est identique.
 </t>
         </is>
       </c>
